--- a/Hasil_Pengujian_Map_3_128.xlsx
+++ b/Hasil_Pengujian_Map_3_128.xlsx
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.001363</v>
+        <v>0.0009210000000000002</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004117</v>
+        <v>0.0038575</v>
       </c>
       <c r="E2" t="n">
-        <v>0.030275</v>
+        <v>0.0296341</v>
       </c>
       <c r="F2" t="n">
-        <v>0.225462</v>
+        <v>0.2268876</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.000346</v>
+        <v>0.0002588000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001179</v>
+        <v>0.0011545</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005429</v>
+        <v>0.0051687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.022043</v>
+        <v>0.0223737</v>
       </c>
     </row>
     <row r="4">
@@ -523,16 +523,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.00075</v>
+        <v>0.0009584000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001342</v>
+        <v>0.0012667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004949</v>
+        <v>0.0048567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.040488</v>
+        <v>0.0389516</v>
       </c>
     </row>
     <row r="5">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.001013</v>
+        <v>0.0004742</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002695</v>
+        <v>0.0026641</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01849</v>
+        <v>0.0188981</v>
       </c>
       <c r="F5" t="n">
-        <v>0.128109</v>
+        <v>0.1261089</v>
       </c>
     </row>
     <row r="6">
@@ -567,16 +567,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.000483</v>
+        <v>0.0004758</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001392</v>
+        <v>0.0013907</v>
       </c>
       <c r="E6" t="n">
-        <v>0.010201</v>
+        <v>0.0050782</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02082</v>
+        <v>0.0210497</v>
       </c>
     </row>
     <row r="7">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.001584</v>
+        <v>0.0006769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003946</v>
+        <v>0.0041323</v>
       </c>
       <c r="E7" t="n">
-        <v>0.029993</v>
+        <v>0.0300821</v>
       </c>
       <c r="F7" t="n">
-        <v>0.226825</v>
+        <v>0.2250614</v>
       </c>
     </row>
     <row r="8">
@@ -611,16 +611,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001317</v>
+        <v>0.0005923</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003838</v>
+        <v>0.0039181</v>
       </c>
       <c r="E8" t="n">
-        <v>0.027873</v>
+        <v>0.0284257</v>
       </c>
       <c r="F8" t="n">
-        <v>0.214172</v>
+        <v>0.2126108</v>
       </c>
     </row>
     <row r="9">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000427</v>
+        <v>0.0003983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001507</v>
+        <v>0.0011118</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003798</v>
+        <v>0.0034864</v>
       </c>
       <c r="F9" t="n">
-        <v>0.013572</v>
+        <v>0.0130372</v>
       </c>
     </row>
     <row r="10">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.000317</v>
+        <v>0.000315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001464</v>
+        <v>0.001494</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006448</v>
+        <v>0.0064565</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02723</v>
+        <v>0.0272763</v>
       </c>
     </row>
     <row r="11">
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.000395</v>
+        <v>0.0003253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001272</v>
+        <v>0.0012627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005429</v>
+        <v>0.005491299999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.023034</v>
+        <v>0.0232038</v>
       </c>
     </row>
     <row r="12">
@@ -699,16 +699,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.000397</v>
+        <v>0.0003441000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001405</v>
+        <v>0.0013932</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005257</v>
+        <v>0.0057963</v>
       </c>
       <c r="F12" t="n">
-        <v>0.023</v>
+        <v>0.0231301</v>
       </c>
     </row>
     <row r="13">
@@ -721,16 +721,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.000886</v>
+        <v>0.0007105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001491</v>
+        <v>0.0013908</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005482</v>
+        <v>0.005022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.040703</v>
+        <v>0.0398273</v>
       </c>
     </row>
     <row r="14">
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001081</v>
+        <v>0.0004852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001588</v>
+        <v>0.0013351</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005344</v>
+        <v>0.0049236</v>
       </c>
       <c r="F14" t="n">
-        <v>0.033596</v>
+        <v>0.0328443</v>
       </c>
     </row>
     <row r="15">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.000741</v>
+        <v>0.0004773999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001472</v>
+        <v>0.0013572</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006814</v>
+        <v>0.0057949</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03316</v>
+        <v>0.03230719999999999</v>
       </c>
     </row>
     <row r="16">
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001368</v>
+        <v>0.0005838</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00296</v>
+        <v>0.0028352</v>
       </c>
       <c r="E16" t="n">
-        <v>0.018848</v>
+        <v>0.0188639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1282</v>
+        <v>0.127145</v>
       </c>
     </row>
     <row r="17">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.000914</v>
+        <v>0.0004693</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002938</v>
+        <v>0.0029367</v>
       </c>
       <c r="E17" t="n">
-        <v>0.018054</v>
+        <v>0.0181052</v>
       </c>
       <c r="F17" t="n">
-        <v>0.116873</v>
+        <v>0.1148795</v>
       </c>
     </row>
     <row r="18">
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.000378</v>
+        <v>0.0003492</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000922</v>
+        <v>0.0010463</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003025</v>
+        <v>0.003152400000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.010959</v>
+        <v>0.0108216</v>
       </c>
     </row>
     <row r="19">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.000364</v>
+        <v>0.0003367</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000724</v>
+        <v>0.0006662</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002729</v>
+        <v>0.0025192</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009195</v>
+        <v>0.0091392</v>
       </c>
     </row>
     <row r="20">
@@ -875,16 +875,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.000377</v>
+        <v>0.0003661</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001182</v>
+        <v>0.001189</v>
       </c>
       <c r="E20" t="n">
-        <v>0.004007</v>
+        <v>0.003900099999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.015115</v>
+        <v>0.0151647</v>
       </c>
     </row>
     <row r="21">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.000579</v>
+        <v>0.0005232999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001516</v>
+        <v>0.0014407</v>
       </c>
       <c r="E21" t="n">
-        <v>0.011459</v>
+        <v>0.005191799999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.021479</v>
+        <v>0.0211354</v>
       </c>
     </row>
     <row r="22">
@@ -919,16 +919,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.000511</v>
+        <v>0.0004484</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001469</v>
+        <v>0.0014161</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005176</v>
+        <v>0.004936299999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.018912</v>
+        <v>0.0189124</v>
       </c>
     </row>
     <row r="23">
@@ -941,16 +941,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001458</v>
+        <v>0.0009423000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003935</v>
+        <v>0.003932600000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.028605</v>
+        <v>0.0288716</v>
       </c>
       <c r="F23" t="n">
-        <v>0.215276</v>
+        <v>0.2131669</v>
       </c>
     </row>
     <row r="24">
@@ -963,16 +963,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.000473</v>
+        <v>0.0004259</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001263</v>
+        <v>0.0011944</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003976</v>
+        <v>0.003638699999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.014241</v>
+        <v>0.0138089</v>
       </c>
     </row>
     <row r="25">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.000449</v>
+        <v>0.0004269</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001268</v>
+        <v>0.001217</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00372</v>
+        <v>0.0036303</v>
       </c>
       <c r="F25" t="n">
-        <v>0.014356</v>
+        <v>0.0142286</v>
       </c>
     </row>
     <row r="26">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.000451</v>
+        <v>0.0004224</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001356</v>
+        <v>0.0012838</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004707</v>
+        <v>0.004183299999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.016507</v>
+        <v>0.0162044</v>
       </c>
     </row>
     <row r="27">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.000357</v>
+        <v>0.0003482</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001561</v>
+        <v>0.001557</v>
       </c>
       <c r="E27" t="n">
-        <v>0.006872</v>
+        <v>0.006625399999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.028229</v>
+        <v>0.028183</v>
       </c>
     </row>
     <row r="28">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.000367</v>
+        <v>0.0003831</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001583</v>
+        <v>0.0016054</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006388</v>
+        <v>0.0064545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.027128</v>
+        <v>0.0268637</v>
       </c>
     </row>
     <row r="29">
@@ -1073,16 +1073,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.000413</v>
+        <v>0.0003962</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001502</v>
+        <v>0.0014796</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005738</v>
+        <v>0.0057319</v>
       </c>
       <c r="F29" t="n">
-        <v>0.023617</v>
+        <v>0.0239483</v>
       </c>
     </row>
     <row r="30">
@@ -1095,16 +1095,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.001063</v>
+        <v>0.0005283999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001477</v>
+        <v>0.0014448</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005843</v>
+        <v>0.0051287</v>
       </c>
       <c r="F30" t="n">
-        <v>0.034374</v>
+        <v>0.0337596</v>
       </c>
     </row>
     <row r="31">
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.00081</v>
+        <v>0.0004676</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001509</v>
+        <v>0.0015331</v>
       </c>
       <c r="E31" t="n">
-        <v>0.006355</v>
+        <v>0.006169099999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.034103</v>
+        <v>0.0331684</v>
       </c>
     </row>
     <row r="32">
@@ -1139,16 +1139,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00069</v>
+        <v>0.0004539</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001469</v>
+        <v>0.0013833</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005728</v>
+        <v>0.0057001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.031985</v>
+        <v>0.031949</v>
       </c>
     </row>
     <row r="33">
@@ -1161,16 +1161,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0009210000000000001</v>
+        <v>0.0005108000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.003103</v>
+        <v>0.0030537</v>
       </c>
       <c r="E33" t="n">
-        <v>0.018456</v>
+        <v>0.018629</v>
       </c>
       <c r="F33" t="n">
-        <v>0.11651</v>
+        <v>0.1154294</v>
       </c>
     </row>
     <row r="34">
@@ -1183,16 +1183,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.00036</v>
+        <v>0.0003495000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001012</v>
+        <v>0.0009986000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003458</v>
+        <v>0.0035415</v>
       </c>
       <c r="F34" t="n">
-        <v>0.012667</v>
+        <v>0.0126504</v>
       </c>
     </row>
     <row r="35">
@@ -1205,16 +1205,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.000376</v>
+        <v>0.0003724</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001349</v>
+        <v>0.0012721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003073</v>
+        <v>0.0029841</v>
       </c>
       <c r="F35" t="n">
-        <v>0.011526</v>
+        <v>0.0115128</v>
       </c>
     </row>
     <row r="36">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.000403</v>
+        <v>0.0004111</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000977</v>
+        <v>0.0014629</v>
       </c>
       <c r="E36" t="n">
-        <v>0.003059</v>
+        <v>0.0030979</v>
       </c>
       <c r="F36" t="n">
-        <v>0.010933</v>
+        <v>0.0111964</v>
       </c>
     </row>
     <row r="37">
@@ -1249,16 +1249,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.00039</v>
+        <v>0.0003508</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001147</v>
+        <v>0.0016907</v>
       </c>
       <c r="E37" t="n">
-        <v>0.004132</v>
+        <v>0.004246</v>
       </c>
       <c r="F37" t="n">
-        <v>0.021311</v>
+        <v>0.0214842</v>
       </c>
     </row>
     <row r="38">
@@ -1271,16 +1271,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.000365</v>
+        <v>0.0003544</v>
       </c>
       <c r="D38" t="n">
-        <v>0.000795</v>
+        <v>0.0007226999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002669</v>
+        <v>0.0025977</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009448</v>
+        <v>0.009361400000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.000325</v>
+        <v>0.000323</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000715</v>
+        <v>0.0006842</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00276</v>
+        <v>0.0025377</v>
       </c>
       <c r="F39" t="n">
-        <v>0.009538</v>
+        <v>0.0092716</v>
       </c>
     </row>
     <row r="40">
@@ -1315,16 +1315,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.000347</v>
+        <v>0.0003107</v>
       </c>
       <c r="D40" t="n">
-        <v>0.000801</v>
+        <v>0.0007961000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002316</v>
+        <v>0.0021095</v>
       </c>
       <c r="F40" t="n">
-        <v>0.008613000000000001</v>
+        <v>0.0088363</v>
       </c>
     </row>
     <row r="41">
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.000439</v>
+        <v>0.0004243</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001261</v>
+        <v>0.0012474</v>
       </c>
       <c r="E41" t="n">
-        <v>0.004048</v>
+        <v>0.0041045</v>
       </c>
       <c r="F41" t="n">
-        <v>0.015094</v>
+        <v>0.0152554</v>
       </c>
     </row>
     <row r="42">
@@ -1359,16 +1359,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.00042</v>
+        <v>0.0003881</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001187</v>
+        <v>0.001222</v>
       </c>
       <c r="E42" t="n">
-        <v>0.003938</v>
+        <v>0.0037205</v>
       </c>
       <c r="F42" t="n">
-        <v>0.014395</v>
+        <v>0.0143768</v>
       </c>
     </row>
     <row r="43">
@@ -1381,16 +1381,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.000506</v>
+        <v>0.0004868</v>
       </c>
       <c r="D43" t="n">
         <v>0.001494</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006451</v>
+        <v>0.0050747</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01912</v>
+        <v>0.0191133</v>
       </c>
     </row>
     <row r="44">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.00051</v>
+        <v>0.0004703</v>
       </c>
       <c r="D44" t="n">
-        <v>0.001402</v>
+        <v>0.0013249</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003907</v>
+        <v>0.0038521</v>
       </c>
       <c r="F44" t="n">
-        <v>0.015333</v>
+        <v>0.014787</v>
       </c>
     </row>
     <row r="45">
@@ -1425,16 +1425,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.000514</v>
+        <v>0.0004824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.001521</v>
+        <v>0.001356</v>
       </c>
       <c r="E45" t="n">
-        <v>0.004523</v>
+        <v>0.004330700000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.017157</v>
+        <v>0.0183412</v>
       </c>
     </row>
     <row r="46">
@@ -1447,16 +1447,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.000487</v>
+        <v>0.0004765</v>
       </c>
       <c r="D46" t="n">
-        <v>0.001361</v>
+        <v>0.0013042</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004941</v>
+        <v>0.0042058</v>
       </c>
       <c r="F46" t="n">
-        <v>0.016495</v>
+        <v>0.0159097</v>
       </c>
     </row>
     <row r="47">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.000405</v>
+        <v>0.0004042000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00272</v>
+        <v>0.0016842</v>
       </c>
       <c r="E47" t="n">
-        <v>0.006845</v>
+        <v>0.0067925</v>
       </c>
       <c r="F47" t="n">
-        <v>0.027214</v>
+        <v>0.027875</v>
       </c>
     </row>
     <row r="48">
@@ -1491,16 +1491,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.0006669999999999999</v>
+        <v>0.0005281</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001591</v>
+        <v>0.0014681</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006022</v>
+        <v>0.0059291</v>
       </c>
       <c r="F48" t="n">
-        <v>0.032594</v>
+        <v>0.0319729</v>
       </c>
     </row>
     <row r="49">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.000444</v>
+        <v>0.0004065</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001051</v>
+        <v>0.001046</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003692</v>
+        <v>0.003522499999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>0.012764</v>
+        <v>0.012834</v>
       </c>
     </row>
     <row r="50">
@@ -1535,16 +1535,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.000442</v>
+        <v>0.0004112</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000844</v>
+        <v>0.0008801</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004406</v>
+        <v>0.004379899999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.015908</v>
+        <v>0.0158328</v>
       </c>
     </row>
     <row r="51">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.000426</v>
+        <v>0.0004398</v>
       </c>
       <c r="D51" t="n">
-        <v>0.001075</v>
+        <v>0.0010824</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003274</v>
+        <v>0.0031812</v>
       </c>
       <c r="F51" t="n">
-        <v>0.011654</v>
+        <v>0.011904</v>
       </c>
     </row>
     <row r="52">
@@ -1579,16 +1579,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.000427</v>
+        <v>0.000407</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001367</v>
+        <v>0.0013638</v>
       </c>
       <c r="E52" t="n">
-        <v>0.003093</v>
+        <v>0.0030663</v>
       </c>
       <c r="F52" t="n">
-        <v>0.011566</v>
+        <v>0.0117026</v>
       </c>
     </row>
     <row r="53">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.000436</v>
+        <v>0.000386</v>
       </c>
       <c r="D53" t="n">
-        <v>0.000913</v>
+        <v>0.0009028999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.003098</v>
+        <v>0.00297</v>
       </c>
       <c r="F53" t="n">
-        <v>0.014439</v>
+        <v>0.01459</v>
       </c>
     </row>
     <row r="54">
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.000381</v>
+        <v>0.0003897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.001251</v>
+        <v>0.0012003</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004241</v>
+        <v>0.004299600000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.021724</v>
+        <v>0.0215601</v>
       </c>
     </row>
     <row r="55">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.000362</v>
+        <v>0.0003856</v>
       </c>
       <c r="D55" t="n">
-        <v>0.000778</v>
+        <v>0.0007455</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002713</v>
+        <v>0.002611</v>
       </c>
       <c r="F55" t="n">
-        <v>0.009232000000000001</v>
+        <v>0.009304999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.000363</v>
+        <v>0.0003567</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0008229999999999999</v>
+        <v>0.0008765999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002235</v>
+        <v>0.0021329</v>
       </c>
       <c r="F56" t="n">
-        <v>0.008796999999999999</v>
+        <v>0.0088951</v>
       </c>
     </row>
     <row r="57">
@@ -1689,16 +1689,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.000318</v>
+        <v>0.0003112</v>
       </c>
       <c r="D57" t="n">
-        <v>0.000722</v>
+        <v>0.0008125000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002363</v>
+        <v>0.0020635</v>
       </c>
       <c r="F57" t="n">
-        <v>0.008713</v>
+        <v>0.008809899999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.000436</v>
+        <v>0.0004215</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001288</v>
+        <v>0.0014338</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003849</v>
+        <v>0.0038945</v>
       </c>
       <c r="F58" t="n">
-        <v>0.014195</v>
+        <v>0.0143454</v>
       </c>
     </row>
     <row r="59">
@@ -1733,16 +1733,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.0005509999999999999</v>
+        <v>0.0005572000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.001519</v>
+        <v>0.0014731</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00673</v>
+        <v>0.0044783</v>
       </c>
       <c r="F59" t="n">
-        <v>0.017226</v>
+        <v>0.0168672</v>
       </c>
     </row>
     <row r="60">
@@ -1755,16 +1755,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.000482</v>
+        <v>0.0004502</v>
       </c>
       <c r="D60" t="n">
-        <v>0.000938</v>
+        <v>0.0009306000000000002</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004615</v>
+        <v>0.005331799999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.015788</v>
+        <v>0.0159632</v>
       </c>
     </row>
     <row r="61">
@@ -1777,16 +1777,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.000467</v>
+        <v>0.0004795999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.001141</v>
+        <v>0.0011237</v>
       </c>
       <c r="E61" t="n">
-        <v>0.003425</v>
+        <v>0.0033033</v>
       </c>
       <c r="F61" t="n">
-        <v>0.011963</v>
+        <v>0.0119627</v>
       </c>
     </row>
     <row r="62">
@@ -1799,16 +1799,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.000462</v>
+        <v>0.000458</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001153</v>
+        <v>0.0011048</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00282</v>
+        <v>0.002841900000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.012739</v>
+        <v>0.0127503</v>
       </c>
     </row>
     <row r="63">
@@ -1821,16 +1821,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.00044</v>
+        <v>0.0004555</v>
       </c>
       <c r="D63" t="n">
-        <v>0.000968</v>
+        <v>0.0009763</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00315</v>
+        <v>0.0030555</v>
       </c>
       <c r="F63" t="n">
-        <v>0.014843</v>
+        <v>0.0149142</v>
       </c>
     </row>
     <row r="64">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.000361</v>
+        <v>0.0003662</v>
       </c>
       <c r="D64" t="n">
-        <v>0.000787</v>
+        <v>0.0008823000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002167</v>
+        <v>0.0021722</v>
       </c>
       <c r="F64" t="n">
-        <v>0.008786</v>
+        <v>0.009279600000000002</v>
       </c>
     </row>
     <row r="65">
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.000503</v>
+        <v>0.0004934</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001225</v>
+        <v>0.0012169</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00299</v>
+        <v>0.0028579</v>
       </c>
       <c r="F65" t="n">
-        <v>0.013315</v>
+        <v>0.0128481</v>
       </c>
     </row>
   </sheetData>
